--- a/DataOne-Registration.xlsx
+++ b/DataOne-Registration.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2EEF9675-D83A-4114-A6E2-A005D62D7857}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2042230F-998D-4103-9932-541E166DFA4B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>ncitester1@nih.gov</t>
-  </si>
-  <si>
-    <t>ncitester2@nih.gov</t>
-  </si>
-  <si>
     <t>First Name</t>
   </si>
   <si>
@@ -43,28 +37,34 @@
     <t>Confirm Password</t>
   </si>
   <si>
-    <t>FirstName1</t>
-  </si>
-  <si>
-    <t>LastName1</t>
-  </si>
-  <si>
     <t xml:space="preserve">P@ssw0rd1 </t>
   </si>
   <si>
-    <t>FirstName2</t>
-  </si>
-  <si>
-    <t>LastName2</t>
-  </si>
-  <si>
-    <t>FirstName3</t>
-  </si>
-  <si>
-    <t>LastName3</t>
-  </si>
-  <si>
-    <t>ncitester3@nih.gov</t>
+    <t>FirstName4</t>
+  </si>
+  <si>
+    <t>FirstName5</t>
+  </si>
+  <si>
+    <t>FirstName6</t>
+  </si>
+  <si>
+    <t>LastName4</t>
+  </si>
+  <si>
+    <t>LastName5</t>
+  </si>
+  <si>
+    <t>LastName6</t>
+  </si>
+  <si>
+    <t>ncitester6@nih.gov</t>
+  </si>
+  <si>
+    <t>ncitester5@nih.gov</t>
+  </si>
+  <si>
+    <t>ncitester4@nih.gov</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,70 +414,70 @@
   <sheetData>
     <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/DataOne-Registration.xlsx
+++ b/DataOne-Registration.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2042230F-998D-4103-9932-541E166DFA4B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{14195559-EF7F-4E77-88EB-8B763857CEDA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,7 +404,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
